--- a/results/I2_N10_T30_C275_0_P6_res.xlsx
+++ b/results/I2_N10_T30_C275_0_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>914.8770074779619</v>
+        <v>773.467865015291</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0149998664855957</v>
+        <v>0.01800012588500977</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42.97700747795366</v>
+        <v>45.77786501528455</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>308.2500000000081</v>
+        <v>154.4000000000063</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>563.6499999999999</v>
+        <v>573.29</v>
       </c>
     </row>
   </sheetData>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -777,7 +777,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -788,7 +788,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -799,7 +799,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -810,7 +810,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -923,7 +923,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -1039,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20.60033324079215</v>
+        <v>22.61068956408072</v>
       </c>
     </row>
     <row r="4">
@@ -1047,7 +1047,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1087,7 +1087,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>23.22876137241512</v>
       </c>
     </row>
     <row r="10">
@@ -1103,7 +1103,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>24.14711948224307</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -1111,7 +1111,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>25.55068636700489</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -1119,7 +1119,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>25.21630137166173</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -1127,7 +1127,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>29.65547625200509</v>
+        <v>25.21630137166173</v>
       </c>
     </row>
     <row r="15">
@@ -1135,7 +1135,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>30</v>
+        <v>28.21630585843227</v>
       </c>
     </row>
   </sheetData>
@@ -1184,7 +1184,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1198,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1212,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1226,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1240,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>299.9800000000008</v>
+        <v>285.6150000000008</v>
       </c>
     </row>
     <row r="8">
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>312.1150000000008</v>
+        <v>294.9850000000008</v>
       </c>
     </row>
     <row r="9">
@@ -1370,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>298.5150000000008</v>
+        <v>290.9700000000008</v>
       </c>
     </row>
     <row r="10">
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>309.7600000000008</v>
+        <v>295.4550000000008</v>
       </c>
     </row>
     <row r="11">
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>308.7550000000008</v>
+        <v>285.1750000000008</v>
       </c>
     </row>
     <row r="12">
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>81.47500000000072</v>
+        <v>67.77500000000072</v>
       </c>
     </row>
     <row r="13">
@@ -1414,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>80.68000000000072</v>
+        <v>73.77000000000072</v>
       </c>
     </row>
     <row r="14">
@@ -1425,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>84.71500000000073</v>
+        <v>74.03500000000074</v>
       </c>
     </row>
     <row r="15">
@@ -1436,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>80.43500000000073</v>
+        <v>73.04500000000073</v>
       </c>
     </row>
     <row r="16">
@@ -1447,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>87.34500000000074</v>
+        <v>72.66500000000073</v>
       </c>
     </row>
     <row r="17">
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>117.7199999999997</v>
+        <v>117.7200000000008</v>
       </c>
     </row>
     <row r="23">
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>118.7149999999991</v>
+        <v>118.7150000000007</v>
       </c>
     </row>
     <row r="24">
@@ -1535,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>115.9699999999991</v>
+        <v>115.9700000000008</v>
       </c>
     </row>
     <row r="25">
@@ -1546,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>115.6449999999997</v>
+        <v>115.6450000000007</v>
       </c>
     </row>
     <row r="26">
@@ -1557,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>116.4549999999991</v>
+        <v>116.4550000000007</v>
       </c>
     </row>
     <row r="27">
@@ -1678,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>190.035</v>
+        <v>236.3350000000021</v>
       </c>
     </row>
     <row r="38">
@@ -1689,7 +1689,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>194.525</v>
+        <v>246.4550000000021</v>
       </c>
     </row>
     <row r="39">
@@ -1700,7 +1700,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>185.245</v>
+        <v>231.7250000000021</v>
       </c>
     </row>
     <row r="40">
@@ -1711,7 +1711,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>190.605</v>
+        <v>253.5450000000021</v>
       </c>
     </row>
     <row r="41">
@@ -1722,7 +1722,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>192.95</v>
+        <v>239.25</v>
       </c>
     </row>
     <row r="42">
@@ -1788,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>166.9600000000012</v>
+        <v>153.2600000000012</v>
       </c>
     </row>
     <row r="48">
@@ -1799,7 +1799,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>168.6450000000012</v>
+        <v>161.7350000000012</v>
       </c>
     </row>
     <row r="49">
@@ -1810,7 +1810,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>164.4300000000012</v>
+        <v>153.75</v>
       </c>
     </row>
     <row r="50">
@@ -1821,7 +1821,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>171.1650000000012</v>
+        <v>163.7750000000012</v>
       </c>
     </row>
     <row r="51">
@@ -1832,7 +1832,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>172.0750000000012</v>
+        <v>157.3950000000012</v>
       </c>
     </row>
     <row r="52">
@@ -1843,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>224.9100000000005</v>
+        <v>175.67</v>
       </c>
     </row>
     <row r="53">
@@ -1854,7 +1854,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>227.3250000000005</v>
+        <v>177.395</v>
       </c>
     </row>
     <row r="54">
@@ -1865,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>226.1600000000005</v>
+        <v>177.7</v>
       </c>
     </row>
     <row r="55">
@@ -1876,7 +1876,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>231.8200000000005</v>
+        <v>176.3</v>
       </c>
     </row>
     <row r="56">
@@ -1887,7 +1887,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>224.9900000000005</v>
+        <v>169.37</v>
       </c>
     </row>
     <row r="57">
@@ -1898,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>212.0549999999987</v>
+        <v>285.6150000000008</v>
       </c>
     </row>
     <row r="58">
@@ -1909,7 +1909,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>215.8299999999987</v>
+        <v>294.9850000000008</v>
       </c>
     </row>
     <row r="59">
@@ -1920,7 +1920,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>177.0399999999987</v>
+        <v>290.9700000000008</v>
       </c>
     </row>
     <row r="60">
@@ -1931,7 +1931,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>198</v>
+        <v>295.4550000000008</v>
       </c>
     </row>
     <row r="61">
@@ -1942,7 +1942,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>184.7</v>
+        <v>285.1750000000008</v>
       </c>
     </row>
     <row r="62">
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>224.9100000000005</v>
+        <v>212.0549999999987</v>
       </c>
     </row>
     <row r="63">
@@ -1964,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>227.3250000000005</v>
+        <v>215.8299999999987</v>
       </c>
     </row>
     <row r="64">
@@ -1975,7 +1975,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>226.1600000000005</v>
+        <v>177.0399999999987</v>
       </c>
     </row>
     <row r="65">
@@ -1986,7 +1986,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>231.8200000000005</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66">
@@ -1997,7 +1997,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>224.9900000000005</v>
+        <v>184.7</v>
       </c>
     </row>
     <row r="67">
@@ -2008,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>299.9800000000008</v>
+        <v>236.3350000000021</v>
       </c>
     </row>
     <row r="68">
@@ -2019,7 +2019,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>312.1150000000008</v>
+        <v>246.4550000000021</v>
       </c>
     </row>
     <row r="69">
@@ -2030,7 +2030,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>298.5150000000008</v>
+        <v>231.7250000000021</v>
       </c>
     </row>
     <row r="70">
@@ -2041,7 +2041,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>309.7600000000008</v>
+        <v>253.5450000000021</v>
       </c>
     </row>
     <row r="71">
@@ -2052,7 +2052,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>308.7550000000008</v>
+        <v>239.25</v>
       </c>
     </row>
   </sheetData>
@@ -2099,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>10.61500000000058</v>
       </c>
     </row>
     <row r="3">
@@ -2110,7 +2110,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>19.98500000000065</v>
       </c>
     </row>
     <row r="4">
@@ -2121,7 +2121,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>15.97000000000064</v>
       </c>
     </row>
     <row r="5">
@@ -2132,7 +2132,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>20.45500000000069</v>
       </c>
     </row>
     <row r="6">
@@ -2143,7 +2143,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>10.1750000000006</v>
       </c>
     </row>
     <row r="7">
@@ -2209,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>24.98000000000081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2220,7 +2220,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>37.1150000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2231,7 +2231,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>23.51500000000081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2242,7 +2242,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>34.76000000000082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2253,7 +2253,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>33.75500000000082</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2355,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="8">
@@ -2366,7 +2366,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="9">
@@ -2377,7 +2377,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>10.68</v>
       </c>
     </row>
     <row r="10">
@@ -2388,7 +2388,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>7.39</v>
       </c>
     </row>
     <row r="11">
@@ -2399,7 +2399,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>14.68</v>
       </c>
     </row>
     <row r="12">
@@ -2630,7 +2630,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>10.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2641,7 +2641,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>8.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2652,7 +2652,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2663,7 +2663,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>14.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2674,7 +2674,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>5.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">

--- a/results/I2_N10_T30_C275_0_P6_res.xlsx
+++ b/results/I2_N10_T30_C275_0_P6_res.xlsx
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01800012588500977</v>
+        <v>0.01799988746643066</v>
       </c>
     </row>
     <row r="5">
